--- a/casemanager - schema.xlsx
+++ b/casemanager - schema.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Source table" sheetId="1" r:id="rId1"/>
     <sheet name="Schema" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Transformations logic" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Table name</t>
   </si>
@@ -154,6 +155,107 @@
 INSERT INTO `mon_alert` (`id`,`mon_base_alert_id`,`check_name`,`event_date`,`check_score`,`customer_id`,`customer_name`,`scc`,`sar_previously_filed`,`alert_score_date`,`workflow_workitem_id`,`alert_identifier`) VALUES (81,60400," Multiple cash credits into different accounts","2017-06-24 04:34:13",3,1000006,"Adobe","Y","Y","2017-03-07 06:27:19",15400,"A789"),(82,60405,"Single originator multiple beneficiary ","2017-01-23 16:42:52",4,1000034,"Altavista","N","N","2017-03-07 18:47:38",15405,"A123"),(83,60410,"Single originator multiple beneficiary ","2017-05-05 18:42:15",6,1000048,"Apple Systems","Y","Y","2017-03-04 20:22:51",15410,"A123"),(84,60415,"Single originator multiple beneficiary ","2017-07-13 02:10:00",3,1000043,"Altavista","N","N","2017-03-11 09:39:49",15415,"A123"),(85,60420," Too many small denominations ","2017-10-12 12:57:44",8,1000001,"Borland","Y","Y","2017-03-16 03:32:50",15420,"A456"),(86,60425," Too many small denominations ","2017-03-05 03:16:26",3,1000003,"Lavasoft","N","N","2017-03-14 06:02:09",15425,"A456"),(87,60430," Too many small denominations ","2017-01-30 19:43:48",1,1000050,"Google","Y","Y","2017-03-14 14:25:19",15430,"A456"),(88,60435," Multiple cash credits into different accounts","2017-11-07 11:02:11",4,1000032,"Finale","N","N","2017-03-01 07:32:45",15435,"A789"),(89,60440," Multiple cash credits into different accounts","2016-07-19 00:37:11",1,1000035,"Microsoft","Y","Y","2017-03-22 06:18:09",15440,"A789"),(90,60445," Multiple cash credits into different accounts","2016-07-05 09:42:14",6,1000018,"Sibelius","N","N","2017-03-14 03:44:33",15445,"A789");
 INSERT INTO `mon_alert` (`id`,`mon_base_alert_id`,`check_name`,`event_date`,`check_score`,`customer_id`,`customer_name`,`scc`,`sar_previously_filed`,`alert_score_date`,`workflow_workitem_id`,`alert_identifier`) VALUES (91,60450,"Single originator multiple beneficiary ","2017-08-25 13:26:19",6,1000009,"Finale","Y","Y","2017-03-18 09:05:34",15450,"A123"),(92,60455,"Single originator multiple beneficiary ","2016-11-07 04:17:32",5,1000027,"Lavasoft","N","N","2017-03-29 23:30:37",15455,"A123"),(93,60460,"Single originator multiple beneficiary ","2016-06-29 16:49:52",9,1000038,"Altavista","Y","Y","2017-03-21 12:16:52",15460,"A123"),(94,60465," Too many small denominations ","2017-11-07 10:50:13",2,1000006,"Apple Systems","N","N","2017-03-07 00:46:58",15465,"A456"),(95,60470," Too many small denominations ","2017-08-09 18:16:10",4,1000005,"Borland","Y","Y","2017-03-03 04:32:30",15470,"A456"),(96,60475," Too many small denominations ","2016-07-04 09:15:33",10,1000000,"Chami","N","N","2017-03-13 05:32:40",15475,"A456"),(97,60480," Multiple cash credits into different accounts","2017-01-23 00:27:06",5,1000027,"Microsoft","Y","Y","2017-03-11 02:36:17",15480,"A789"),(98,60485," Multiple cash credits into different accounts","2018-02-28 04:57:49",10,1000029,"Google","N","N","2017-03-10 04:33:22",15485,"A789"),(99,60490," Multiple cash credits into different accounts","2016-06-10 14:12:04",9,1000032,"Adobe","Y","Y","2017-03-30 16:37:24",15490,"A789"),(100,60495,"Single originator multiple beneficiary ","2017-12-07 15:13:28",9,1000046,"Lavasoft","N","N","2017-03-25 10:18:04",15495,"A123");
 </t>
+  </si>
+  <si>
+    <t>Input table</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>cases</t>
+  </si>
+  <si>
+    <t>Step1</t>
+  </si>
+  <si>
+    <t>Step2</t>
+  </si>
+  <si>
+    <t>Step3</t>
+  </si>
+  <si>
+    <t>cp_cases
+alert_case</t>
+  </si>
+  <si>
+    <t>cp_cases &amp; h_cases</t>
+  </si>
+  <si>
+    <t>Output(RDD/ Hive tables)</t>
+  </si>
+  <si>
+    <t>join cp_cases &amp; alert_cases on case_key where alert_key is not blank and entity_name="Real Alert".
+Take all the columns from cp_cases and add alert_key to the target table</t>
+  </si>
+  <si>
+    <t>Split the cases into current and historical.
+Current table are with substr(case_identifier,1,7) = 'CYYYYMM' where YYYY=current year and MM=current month.
+Historical table are with substr(case_identifier,1,7) &lt; CYYYYMM
+Take all the columns from source table</t>
+  </si>
+  <si>
+    <t>cp_cases_alert</t>
+  </si>
+  <si>
+    <t>cp_cases_alert
+mon_alert</t>
+  </si>
+  <si>
+    <t>cp_mon_alert</t>
+  </si>
+  <si>
+    <t>join cp_alert_case and mon_alert based on alert_key and id.
+Take all the columns from mon_alert</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>transactions_ddl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP TABLE `transactions`;
+CREATE TABLE `transactions` (
+  `alert_identifier` TEXT default NULL,
+  `txn_id` TEXT default NULL,
+  `account_id` TEXT default NULL,
+  `primary_customer_id` mediumint default NULL,
+  `branch_id` varchar(255),
+  `txn_source_type_code` TEXT default NULL,
+  `txn_amount_orig` mediumint default NULL,
+  `txn_amount_base` mediumint default NULL,
+  `credit_debit_code` TEXT default NULL,
+  `txn_status_code` TEXT default NULL,
+  `txn_channel_code` TEXT default NULL,
+  `originator_key` mediumint default NULL,
+  `originator_address` varchar(255) default NULL,
+  `originator_country` varchar(100) default NULL,
+  `beneficiary_key` mediumint default NULL,
+  `beneficiary_address` varchar(255) default NULL,
+  `beneficiary_country` varchar(100) default NULL,
+  `run_date` varchar(255)
+) 
+</t>
+  </si>
+  <si>
+    <t>transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO `transactions` (`alert_identifier`,`txn_id`,`account_id`,`primary_customer_id`,`branch_id`,`txn_source_type_code`,`txn_amount_orig`,`txn_amount_base`,`credit_debit_code`,`txn_status_code`,`txn_channel_code`,`originator_key`,`originator_address`,`originator_country`,`beneficiary_key`,`beneficiary_address`,`beneficiary_country`,`run_date`) VALUES ("A123","C20170419203040","ACC1",1000041,"Laives/Leifers","Cash",502,543,"CREDIT","COM","Cash",1000068,"602 Quis, Ave","Sri Lanka",1000047,"P.O. Box 583, 6495 Ultrices. St.","Guinea-Bissau","2016-07-06 14:53:13"),("A123","C20170419203040","ACC1",1000037,"East Linton","Cash",491,636,"CREDIT","COM","Cash",1000020,"P.O. Box 369, 5579 Faucibus Road","Czech Republic",1000012,"225-3104 Gravida St.","Belgium","2017-12-31 10:31:32"),("A123","C20170419203040","ACC1",1000018,"Duluth","Cash",709,239,"DEBIT","COM","Cash",1000092,"Ap #963-6946 Magna Avenue","Benin",1000042,"P.O. Box 734, 2481 Euismod Rd.","Kuwait","2016-09-07 15:15:45"),("A456","C20170419203040","ACC2",1000043,"Oyen","Cash",416,641,"DEBIT","INP","Cash",1000068,"1559 Proin Ave","Malaysia",1000006,"1646 Mollis Street","Viet Nam","2017-10-16 09:44:18"),("A456","C20170419203040","ACC2",1000023,"Itter","Wire",586,558,"CREDIT","INP","Wire",1000095,"8866 Faucibus Ave","Venezuela",1000046,"6374 Risus Av.","Aruba","2016-06-18 20:40:44"),("A456","C20170419203040","ACC2",1000088,"Drumheller","Wire",236,438,"CREDIT","INP","Wire",1000048,"4055 Cursus. Road","Indonesia",1000088,"997-4054 Eros. Rd.","Antarctica","2016-12-06 20:07:31"),("A789","C20170419203040","ACC3",1000032,"Spokane","Wire",934,401,"DEBIT","FAIL","Wire",1000046,"Ap #679-6602 Quis Road","Yemen",1000088,"756-2474 Ad Ave","Gambia","2018-03-08 16:14:00"),("A789","C20170419203040","ACC3",1000072,"Erli","Wire",951,329,"DEBIT","FAIL","Wire",1000014,"Ap #481-4323 Nibh. Rd.","Belize",1000009,"866-213 Risus. Avenue","Nigeria","2017-08-05 12:46:33"),("A789","C20170419203040","ACC3",1000072,"Tenali","DD",115,398,"CREDIT","FAIL","DD",1000047,"984 Justo. Road","Bouvet Island",1000063,"536-4526 Ipsum Road","Anguilla","2016-05-21 19:57:08"),("A123","C20170419203040","ACC1",1000018,"Montrose","DD",230,232,"CREDIT","COM","DD",1000032,"Ap #880-182 Torquent St.","United Kingdom (Great Britain)",1000030,"988-1431 Senectus Ave","Monaco","2016-05-22 16:36:04");
+INSERT INTO `transactions` (`alert_identifier`,`txn_id`,`account_id`,`primary_customer_id`,`branch_id`,`txn_source_type_code`,`txn_amount_orig`,`txn_amount_base`,`credit_debit_code`,`txn_status_code`,`txn_channel_code`,`originator_key`,`originator_address`,`originator_country`,`beneficiary_key`,`beneficiary_address`,`beneficiary_country`,`run_date`) VALUES ("A123","C20170419203041","ACC1",1000090,"Cuccaro Vetere","DD",414,537,"DEBIT","COM","DD",1000009,"Ap #903-5157 Sed Road","Swaziland",1000065,"347-4447 Ultrices. St.","Equatorial Guinea","2018-02-15 20:02:03"),("A123","C20170419203041","ACC1",1000087,"Schagen","DD",762,520,"DEBIT","COM","DD",1000048,"474-1575 Posuere St.","Finland",1000080,"348-4288 Tellus Road","Croatia","2016-04-20 11:37:02"),("A456","C20170419203041","ACC2",1000090,"Sittard","Online",919,291,"CREDIT","INP","Online",1000001,"7828 Aliquam Ave","Peru",1000041,"Ap #317-8443 Interdum Rd.","Niue","2017-05-18 01:47:21"),("A456","C20170419203041","ACC2",1000053,"Redlands","Online",114,260,"CREDIT","INP","Online",1000083,"520-7400 Nascetur Road","Austria",1000064,"P.O. Box 565, 8473 Congue, Ave","Burundi","2017-07-26 06:18:16"),("A456","C20170419203041","ACC2",1000069,"Elen","Online",753,188,"DEBIT","INP","Online",1000042,"Ap #229-7285 Augue. St.","Liechtenstein",1000055,"321-5289 Semper Av.","Saint Lucia","2017-03-31 22:33:03"),("A789","C20170419203041","ACC3",1000005,"Bonefro","Online",442,361,"DEBIT","FAIL","Online",1000095,"P.O. Box 262, 3096 Vulputate Street","Iceland",1000066,"201-1028 Nec, Ave","Jersey","2017-10-22 20:22:03"),("A789","C20170419203041","ACC3",1000016,"Torres del Paine","Cash",201,895,"CREDIT","FAIL","Cash",1000012,"Ap #511-908 Neque Av.","Central African Republic",1000090,"224-2484 Mollis Street","Laos","2016-12-14 06:25:32"),("A789","C20170419203041","ACC3",1000004,"Paillaco","Cash",575,334,"CREDIT","FAIL","Cash",1000001,"540-1510 A, Ave","Oman",1000088,"Ap #268-1503 Tortor. Rd.","Saint Lucia","2017-05-01 06:05:19"),("A123","C20170419203041","ACC1",1000031,"Bahawalpur","Cash",988,670,"DEBIT","COM","Cash",1000027,"Ap #782-8150 Lorem Street","Sudan",1000090,"7323 Ligula. Ave","Macao","2016-11-22 01:09:50"),("A123","C20170419203041","ACC1",1000056,"Bernburg","Cash",583,545,"DEBIT","COM","Cash",1000054,"197-8842 Non, St.","Marshall Islands",1000086,"P.O. Box 373, 6403 Convallis Av.","Morocco","2018-01-10 11:54:52");
+INSERT INTO `transactions` (`alert_identifier`,`txn_id`,`account_id`,`primary_customer_id`,`branch_id`,`txn_source_type_code`,`txn_amount_orig`,`txn_amount_base`,`credit_debit_code`,`txn_status_code`,`txn_channel_code`,`originator_key`,`originator_address`,`originator_country`,`beneficiary_key`,`beneficiary_address`,`beneficiary_country`,`run_date`) VALUES ("A123","C20170419203042","ACC1",1000096,"Verrebroek","Wire",650,125,"CREDIT","COM","Wire",1000022,"2378 Porttitor Avenue","Djibouti",1000070,"Ap #106-1463 Diam St.","Israel","2017-11-28 15:41:56"),("A456","C20170419203042","ACC2",1000028,"La Cruz","Wire",802,508,"CREDIT","INP","Wire",1000079,"Ap #191-6222 In Ave","El Salvador",1000062,"3113 Ut Road","French Polynesia","2018-01-13 03:14:41"),("A456","C20170419203042","ACC2",1000086,"Sagar","Wire",367,372,"DEBIT","INP","Wire",1000007,"5983 Magna Road","Bangladesh",1000033,"P.O. Box 454, 3325 Eros. Street","Botswana","2018-04-16 18:49:11"),("A456","C20170419203042","ACC2",1000070,"Rueil-Malmaison","Wire",675,885,"DEBIT","INP","Wire",1000024,"184-3567 Eu Rd.","Serbia",1000097,"8202 Neque Rd.","Uruguay","2017-08-02 10:38:12"),("A789","C20170419203042","ACC3",1000086,"San Piero a Sieve","DD",892,329,"CREDIT","FAIL","DD",1000067,"580 Laoreet, Av.","Cambodia",1000014,"180-1393 Nunc. Road","Netherlands","2017-08-22 18:28:48"),("A789","C20170419203042","ACC3",1000081,"Renca","DD",982,420,"CREDIT","FAIL","DD",1000050,"232 A St.","Brunei",1000068,"9834 Vel Av.","Heard Island and Mcdonald Islands","2018-03-16 13:44:45"),("A789","C20170419203042","ACC3",1000065,"LamontzŽe","DD",148,457,"DEBIT","FAIL","DD",1000041,"325-5547 Non Road","Venezuela",1000036,"Ap #167-4099 Auctor St.","Bulgaria","2017-06-05 16:12:31"),("A123","C20170419203042","ACC1",1000080,"Livingston","DD",120,426,"DEBIT","COM","DD",1000004,"P.O. Box 883, 4533 Quisque Avenue","Azerbaijan",1000078,"P.O. Box 704, 819 Dictum Road","Côte D'Ivoire (Ivory Coast)","2017-05-03 02:26:40"),("A123","C20170419203042","ACC1",1000094,"Gibsons","Online",245,302,"CREDIT","COM","Online",1000067,"507-5456 Ac Av.","Kenya",1000064,"Ap #798-3218 Mauris Rd.","Turkmenistan","2017-01-20 16:50:31"),("A123","C20170419203042","ACC1",1000051,"Olinda","Online",352,489,"CREDIT","COM","Online",1000062,"9552 Consectetuer Street","Montenegro",1000099,"2387 A, Road","Egypt","2017-02-25 13:47:37");
+INSERT INTO `transactions` (`alert_identifier`,`txn_id`,`account_id`,`primary_customer_id`,`branch_id`,`txn_source_type_code`,`txn_amount_orig`,`txn_amount_base`,`credit_debit_code`,`txn_status_code`,`txn_channel_code`,`originator_key`,`originator_address`,`originator_country`,`beneficiary_key`,`beneficiary_address`,`beneficiary_country`,`run_date`) VALUES ("A456","C20170419203043","ACC2",1000030,"Burnie","Online",937,266,"DEBIT","INP","Online",1000025,"762 Arcu. Road","Mozambique",1000001,"1869 Auctor Rd.","Pakistan","2017-12-16 12:48:23"),("A456","C20170419203043","ACC2",1000082,"Avellino","Online",784,714,"DEBIT","INP","Online",1000025,"Ap #729-7855 Mauris Street","Pakistan",1000073,"Ap #430-730 Ac Ave","Guyana","2017-06-13 23:55:50"),("A456","C20170419203043","ACC2",1000094,"Piagge","Cash",468,644,"CREDIT","INP","Cash",1000089,"8516 Vel, Ave","Yemen",1000039,"Ap #999-6436 Erat Ave","Mauritania","2016-04-01 07:58:55"),("A789","C20170419203043","ACC3",1000098,"Gosnells","Cash",604,237,"CREDIT","FAIL","Cash",1000025,"625-3736 Et Street","Somalia",1000090,"112-2561 Porttitor Rd.","Albania","2017-02-19 17:19:09"),("A789","C20170419203043","ACC3",1000042,"Oklahoma City","Cash",153,638,"DEBIT","FAIL","Cash",1000070,"923 Etiam Street","Mongolia",1000023,"Ap #179-5202 Vitae Ave","Comoros","2016-05-23 17:30:50"),("A789","C20170419203043","ACC3",1000093,"Berwick","Cash",585,189,"DEBIT","FAIL","Cash",1000026,"191-1659 Lacinia Av.","Sierra Leone",1000005,"Ap #704-9928 Dolor Rd.","Tonga","2017-06-22 02:35:02"),("A123","C20170419203043","ACC1",1000015,"Hall in Tirol","Wire",511,822,"CREDIT","COM","Wire",1000053,"Ap #533-6586 Ullamcorper. Street","Saint Lucia",1000015,"7590 Ac Road","Armenia","2017-07-13 22:20:08"),("A123","C20170419203043","ACC1",1000049,"San Piero Patti","Wire",793,374,"CREDIT","COM","Wire",1000018,"Ap #436-5162 Blandit Rd.","Saint Vincent and The Grenadines",1000049,"480-8966 Cras Street","Brazil","2017-06-13 19:18:10"),("A123","C20170419203043","ACC1",1000099,"Crystal Springs","Wire",381,211,"DEBIT","COM","Wire",1000036,"Ap #787-6374 Vulputate, Rd.","Pakistan",1000051,"624-6334 Sed, Av.","Russian Federation","2018-01-13 04:28:37"),("A456","C20170419203043","ACC2",1000079,"Gravataí","Wire",112,678,"DEBIT","INP","Wire",1000025,"Ap #452-9654 Lorem Street","Western Sahara",1000037,"P.O. Box 470, 8626 Sodales. Street","Bangladesh","2016-04-02 16:10:24");
+INSERT INTO `transactions` (`alert_identifier`,`txn_id`,`account_id`,`primary_customer_id`,`branch_id`,`txn_source_type_code`,`txn_amount_orig`,`txn_amount_base`,`credit_debit_code`,`txn_status_code`,`txn_channel_code`,`originator_key`,`originator_address`,`originator_country`,`beneficiary_key`,`beneficiary_address`,`beneficiary_country`,`run_date`) VALUES ("A456","C20170419203044","ACC2",1000013,"Coutisse","DD",769,220,"CREDIT","INP","DD",1000076,"285-7135 Diam. Rd.","Malaysia",1000020,"7004 Ac Avenue","Gabon","2017-03-19 23:39:43"),("A456","C20170419203044","ACC2",1000077,"Anlier","DD",914,820,"CREDIT","INP","DD",1000052,"P.O. Box 319, 9329 Feugiat. Rd.","Indonesia",1000058,"401 Semper Ave","Jersey","2018-01-18 06:34:40"),("A789","C20170419203044","ACC3",1000029,"Sooke","DD",654,111,"DEBIT","FAIL","DD",1000099,"8264 Cum Av.","Pitcairn Islands",1000062,"P.O. Box 403, 113 Gravida Av.","Aruba","2016-10-12 19:22:17"),("A789","C20170419203044","ACC3",1000071,"Dongelberg","DD",477,797,"DEBIT","FAIL","DD",1000005,"301-2234 Elit. Road","United States",1000035,"4638 Quam. Avenue","Israel","2017-11-20 17:00:13"),("A789","C20170419203044","ACC3",1000071,"Tierra Amarilla","Online",473,840,"CREDIT","FAIL","Online",1000099,"P.O. Box 691, 8380 Morbi St.","Azerbaijan",1000029,"7558 At Ave","Serbia","2018-02-06 00:33:17"),("A123","C20170419203044","ACC1",1000047,"Ross-on-Wye","Online",470,321,"CREDIT","COM","Online",1000047,"P.O. Box 854, 9118 Arcu. Rd.","Barbados",1000041,"678-9104 Tellus Street","Bangladesh","2017-03-15 12:05:54"),("A123","C20170419203044","ACC1",1000034,"Campofelice di Fitalia","Online",558,882,"DEBIT","COM","Online",1000087,"705-8068 Et Road","Madagascar",1000082,"5171 Neque St.","Portugal","2016-04-23 21:14:48"),("A123","C20170419203044","ACC1",1000033,"Dresden","Online",174,651,"DEBIT","COM","Online",1000046,"Ap #401-7624 Posuere Av.","Pitcairn Islands",1000099,"Ap #477-1992 Magna Rd.","Samoa","2018-01-21 14:19:59"),("A456","C20170419203044","ACC2",1000011,"Dampremy","Cash",575,969,"CREDIT","INP","Cash",1000050,"2240 Neque. Av.","Reunion",1000068,"9685 Ante Road","Ethiopia","2018-01-21 01:40:15"),("A456","C20170419203044","ACC2",1000095,"Bergama","Cash",182,374,"CREDIT","INP","Cash",1000034,"102-5668 Eu Road","Guadeloupe",1000017,"P.O. Box 803, 5027 Eu, Road","Belize","2018-01-02 14:39:50");
+INSERT INTO `transactions` (`alert_identifier`,`txn_id`,`account_id`,`primary_customer_id`,`branch_id`,`txn_source_type_code`,`txn_amount_orig`,`txn_amount_base`,`credit_debit_code`,`txn_status_code`,`txn_channel_code`,`originator_key`,`originator_address`,`originator_country`,`beneficiary_key`,`beneficiary_address`,`beneficiary_country`,`run_date`) VALUES ("A456","C20170419203045","ACC2",1000092,"Giustino","Cash",118,878,"DEBIT","INP","Cash",1000086,"5242 Sit Street","Angola",1000018,"Ap #594-3609 Duis Av.","Curaçao","2017-09-09 21:47:41"),("A789","C20170419203045","ACC3",1000029,"Barchi","Cash",160,721,"DEBIT","FAIL","Cash",1000014,"854-153 Dapibus Ave","Denmark",1000062,"391-9205 Erat Av.","Bonaire, Sint Eustatius and Saba","2016-11-24 08:56:13"),("A789","C20170419203045","ACC3",1000086,"Hugli-Chinsurah","Wire",889,915,"CREDIT","FAIL","Wire",1000088,"Ap #307-8056 Et St.","Tajikistan",1000014,"P.O. Box 564, 5094 Mauris Rd.","Taiwan","2017-11-07 22:40:02"),("A789","C20170419203045","ACC3",1000058,"Modakeke","Wire",440,407,"CREDIT","FAIL","Wire",1000023,"P.O. Box 804, 2374 Enim. Av.","Ireland",1000050,"1274 Etiam Rd.","Bouvet Island","2017-10-17 23:17:56"),("A123","C20170419203045","ACC1",1000016,"Lenna","Wire",423,245,"DEBIT","COM","Wire",1000076,"Ap #280-5390 Tellus. Road","Saint Pierre and Miquelon",1000038,"7476 Suspendisse Rd.","Portugal","2018-01-09 23:02:21"),("A123","C20170419203045","ACC1",1000085,"Tramonti di Sopra","Wire",765,142,"DEBIT","COM","Wire",1000050,"Ap #590-2881 Mauris St.","France",1000075,"Ap #527-5310 Porttitor St.","Maldives","2017-03-16 22:17:37"),("A123","C20170419203045","ACC1",1000009,"Lautaro","DD",179,386,"CREDIT","COM","DD",1000098,"P.O. Box 724, 5444 Dolor, Rd.","Cuba",1000056,"639-8012 Proin Avenue","Burundi","2018-01-08 08:14:12"),("A456","C20170419203045","ACC2",1000035,"Ranst","DD",523,470,"CREDIT","INP","DD",1000076,"Ap #608-6919 Quis, Av.","French Southern Territories",1000020,"4842 Sit Avenue","Uganda","2017-03-30 20:22:27"),("A456","C20170419203045","ACC2",1000068,"Marburg","DD",457,803,"DEBIT","INP","DD",1000039,"P.O. Box 508, 3239 At Street","Congo, the Democratic Republic of the",1000013,"P.O. Box 409, 1158 Lacus Road","Guatemala","2018-04-16 11:37:31"),("A456","C20170419203045","ACC2",1000050,"Olympia","DD",425,182,"DEBIT","INP","DD",1000096,"398-6600 Vel, Road","Serbia",1000041,"6739 Sem Street","Cameroon","2017-08-25 10:00:24");
+INSERT INTO `transactions` (`alert_identifier`,`txn_id`,`account_id`,`primary_customer_id`,`branch_id`,`txn_source_type_code`,`txn_amount_orig`,`txn_amount_base`,`credit_debit_code`,`txn_status_code`,`txn_channel_code`,`originator_key`,`originator_address`,`originator_country`,`beneficiary_key`,`beneficiary_address`,`beneficiary_country`,`run_date`) VALUES ("A789","C20170419203046","ACC3",1000092,"Canoas","Online",396,243,"CREDIT","FAIL","Online",1000013,"P.O. Box 654, 2790 Ut Av.","Botswana",1000045,"819-5468 Ante Rd.","Puerto Rico","2016-05-05 00:45:14"),("A789","C20170419203046","ACC3",1000034,"Polatlı","Online",543,167,"CREDIT","FAIL","Online",1000063,"P.O. Box 145, 1623 Fusce Av.","Holy See (Vatican City State)",1000088,"165 Mi Rd.","Somalia","2017-06-11 06:17:06"),("A789","C20170419203046","ACC3",1000076,"Qutubullapur","Online",574,245,"DEBIT","FAIL","Online",1000067,"P.O. Box 851, 9551 Mauris St.","Reunion",1000012,"460-9863 Eu, Av.","Cuba","2017-10-11 06:20:54"),("A123","C20170419203046","ACC1",1000028,"Abeokuta","Online",725,954,"DEBIT","COM","Online",1000027,"Ap #127-3904 Quis Ave","Ghana",1000053,"Ap #692-2806 Ante, Road","Ghana","2017-11-13 15:25:52"),("A123","C20170419203046","ACC1",1000097,"Shepparton","Cash",421,509,"CREDIT","COM","Cash",1000016,"Ap #489-3725 Euismod Avenue","Armenia",1000088,"1474 Dictum. Av.","Ghana","2016-10-08 05:23:53"),("A123","C20170419203046","ACC1",1000004,"Bergen","Cash",736,988,"CREDIT","COM","Cash",1000012,"714-6237 Sociis Rd.","Montenegro",1000027,"Ap #141-8603 Litora Road","Honduras","2017-01-17 07:37:43"),("A456","C20170419203046","ACC2",1000078,"Navidad","Cash",143,367,"DEBIT","INP","Cash",1000000,"P.O. Box 188, 6320 Ridiculus Ave","Montserrat",1000029,"Ap #715-3482 Suspendisse Avenue","El Salvador","2017-07-28 18:19:06"),("A456","C20170419203046","ACC2",1000073,"Salt Spring Island","Cash",540,526,"DEBIT","INP","Cash",1000001,"Ap #949-5041 Vivamus St.","Cape Verde",1000065,"502-1641 Pretium Ave","Norway","2016-12-29 01:02:25"),("A456","C20170419203046","ACC2",1000079,"Armstrong","Wire",788,583,"CREDIT","INP","Wire",1000062,"2076 Mauris Road","Korea, South",1000034,"4862 Scelerisque Ave","Djibouti","2017-02-28 06:03:55"),("A789","C20170419203046","ACC3",1000063,"Gonnosfanadiga","Wire",943,938,"CREDIT","FAIL","Wire",1000045,"8462 Porta Street","Uruguay",1000028,"Ap #860-7568 Lacus Road","Guadeloupe","2017-03-30 09:08:04");
+INSERT INTO `transactions` (`alert_identifier`,`txn_id`,`account_id`,`primary_customer_id`,`branch_id`,`txn_source_type_code`,`txn_amount_orig`,`txn_amount_base`,`credit_debit_code`,`txn_status_code`,`txn_channel_code`,`originator_key`,`originator_address`,`originator_country`,`beneficiary_key`,`beneficiary_address`,`beneficiary_country`,`run_date`) VALUES ("A789","C20170419203047","ACC3",1000050,"Pencahue","Wire",409,409,"DEBIT","FAIL","Wire",1000097,"Ap #258-8189 Nonummy. Av.","India",1000002,"Ap #556-6347 Non, Rd.","France","2018-02-21 17:26:44"),("A789","C20170419203047","ACC3",1000017,"Roxboro","Wire",641,204,"DEBIT","FAIL","Wire",1000081,"P.O. Box 825, 2524 Neque Ave","Saint Martin",1000041,"Ap #686-2420 Elit. Rd.","Saint Barthélemy","2018-03-12 00:59:02"),("A123","C20170419203047","ACC1",1000075,"Mönchengladbach","DD",766,278,"CREDIT","COM","DD",1000097,"P.O. Box 664, 6491 Est. Road","Curaçao",1000094,"Ap #500-4462 Orci. Road","France","2017-07-22 03:53:44"),("A123","C20170419203047","ACC1",1000076,"Hondelange","DD",177,760,"CREDIT","COM","DD",1000004,"2173 Ligula Rd.","French Southern Territories",1000053,"1770 Hendrerit. Ave","Nauru","2018-03-13 09:09:10"),("A123","C20170419203047","ACC1",1000079,"Thame","DD",563,118,"DEBIT","COM","DD",1000016,"9236 Quis, Rd.","Costa Rica",1000083,"Ap #374-2741 Aenean Street","Estonia","2016-04-19 21:24:07"),("A456","C20170419203047","ACC2",1000041,"Cambridge Bay","DD",597,412,"DEBIT","INP","DD",1000075,"Ap #538-8006 Elit, St.","Zimbabwe",1000040,"P.O. Box 495, 7787 Sit St.","Tanzania","2017-01-18 20:45:31"),("A456","C20170419203047","ACC2",1000042,"Baidyabati","Online",175,406,"CREDIT","INP","Online",1000048,"892-966 Lorem Ave","Ukraine",1000059,"696-3639 Sodales. Rd.","Rwanda","2018-03-29 00:43:20"),("A456","C20170419203047","ACC2",1000064,"Zerba","Online",706,359,"CREDIT","INP","Online",1000034,"Ap #553-4394 Eu St.","Belize",1000093,"5968 Nunc. Road","Faroe Islands","2016-06-24 01:24:12"),("A789","C20170419203047","ACC3",1000070,"Rockingham","Online",944,757,"DEBIT","FAIL","Online",1000085,"573-5204 Dis Avenue","Togo",1000001,"511-3665 Duis Street","Estonia","2017-10-12 08:13:15"),("A789","C20170419203047","ACC3",1000040,"Villa Cortese","Online",500,435,"DEBIT","FAIL","Online",1000085,"8542 Consectetuer, Ave","Kazakhstan",1000083,"410-8980 Eget Rd.","Ecuador","2018-04-18 13:10:02");
+INSERT INTO `transactions` (`alert_identifier`,`txn_id`,`account_id`,`primary_customer_id`,`branch_id`,`txn_source_type_code`,`txn_amount_orig`,`txn_amount_base`,`credit_debit_code`,`txn_status_code`,`txn_channel_code`,`originator_key`,`originator_address`,`originator_country`,`beneficiary_key`,`beneficiary_address`,`beneficiary_country`,`run_date`) VALUES ("A789","C20170419203048","ACC3",1000049,"La Salle","Cash",863,124,"CREDIT","FAIL","Cash",1000028,"Ap #985-7046 Praesent Av.","Botswana",1000091,"351 Aliquet. Ave","Sierra Leone","2018-03-09 17:01:06"),("A123","C20170419203048","ACC1",1000046,"Witney","Cash",653,144,"CREDIT","COM","Cash",1000019,"Ap #494-8629 Taciti Avenue","Papua New Guinea",1000097,"Ap #457-4205 Nam Street","Haiti","2016-04-10 22:07:57"),("A123","C20170419203048","ACC1",1000053,"Penhold","Cash",372,799,"DEBIT","COM","Cash",1000032,"917-214 Vitae Ave","Lesotho",1000078,"Ap #596-871 Nulla. Avenue","Laos","2016-12-23 21:53:30"),("A123","C20170419203048","ACC1",1000010,"Cuceglio","Cash",186,769,"DEBIT","COM","Cash",1000064,"Ap #918-1695 Eget Avenue","Norfolk Island",1000099,"292-6812 Accumsan Avenue","Dominican Republic","2016-09-03 08:03:21"),("A456","C20170419203048","ACC2",1000019,"Cascavel","Wire",804,198,"CREDIT","INP","Wire",1000000,"P.O. Box 721, 4462 Lorem Ave","Andorra",1000025,"654-818 Cum Ave","Sri Lanka","2017-04-02 06:08:00"),("A456","C20170419203048","ACC2",1000096,"Burg","Wire",166,891,"CREDIT","INP","Wire",1000005,"717-2181 Blandit Ave","Canada",1000055,"535-7054 Vel, Av.","Guatemala","2016-07-09 08:18:16"),("A456","C20170419203048","ACC2",1000099,"Dolgellau","Wire",244,336,"DEBIT","INP","Wire",1000088,"591-3249 Nibh. St.","Ireland",1000046,"524-7173 A Avenue","Guyana","2017-02-06 21:21:56"),("A789","C20170419203048","ACC3",1000070,"Hulshout","Wire",627,268,"DEBIT","FAIL","Wire",1000048,"Ap #325-5287 Lacinia Rd.","Estonia",1000040,"Ap #520-1971 Cras Street","Yemen","2016-12-10 08:50:55"),("A789","C20170419203048","ACC3",1000088,"Palmilla","DD",911,915,"CREDIT","FAIL","DD",1000063,"Ap #260-2590 Vestibulum. Avenue","Jamaica",1000031,"195 Id Ave","Botswana","2017-11-05 23:00:08"),("A789","C20170419203048","ACC3",1000062,"Bowling Green","DD",941,132,"CREDIT","FAIL","DD",1000066,"P.O. Box 884, 8172 Nisi Avenue","Pitcairn Islands",1000098,"P.O. Box 387, 6947 Fringilla, Rd.","Jersey","2016-11-19 04:28:11");
+INSERT INTO `transactions` (`alert_identifier`,`txn_id`,`account_id`,`primary_customer_id`,`branch_id`,`txn_source_type_code`,`txn_amount_orig`,`txn_amount_base`,`credit_debit_code`,`txn_status_code`,`txn_channel_code`,`originator_key`,`originator_address`,`originator_country`,`beneficiary_key`,`beneficiary_address`,`beneficiary_country`,`run_date`) VALUES ("A123","C20170419203049","ACC1",1000017,"Bünyan","DD",231,548,"DEBIT","COM","DD",1000005,"Ap #172-5910 Purus, Rd.","French Guiana",1000006,"3383 Aliquam Rd.","Côte D'Ivoire (Ivory Coast)","2016-10-08 13:40:18"),("A123","C20170419203049","ACC1",1000040,"Fort Wayne","DD",392,656,"DEBIT","COM","DD",1000029,"P.O. Box 913, 2585 Risus Av.","Bangladesh",1000029,"Ap #540-4993 Sed St.","Hong Kong","2017-12-03 01:17:37"),("A123","C20170419203049","ACC1",1000074,"North Berwick","Online",605,184,"CREDIT","COM","Online",1000068,"228 Ultrices. Road","Congo, the Democratic Republic of the",1000078,"240-3350 Metus Av.","Greenland","2016-10-23 09:04:41"),("A456","C20170419203049","ACC2",1000019,"Polesella","Online",662,444,"CREDIT","INP","Online",1000096,"Ap #337-1368 Cursus St.","Switzerland",1000062,"119-2076 Aliquam Ave","Libya","2017-04-28 16:44:36"),("A456","C20170419203049","ACC2",1000040,"Lillois-WitterzŽe","Online",843,230,"DEBIT","INP","Online",1000041,"Ap #346-4142 Mauris Avenue","Somalia",1000042,"P.O. Box 728, 597 Blandit. Rd.","Singapore","2016-04-05 09:06:26"),("A456","C20170419203049","ACC2",1000082,"Graneros","Online",307,613,"DEBIT","INP","Online",1000046,"8004 Ut Ave","Cayman Islands",1000040,"2677 Tortor Road","Mexico","2017-11-08 11:29:12"),("A789","C20170419203049","ACC3",1000038,"Osogbo","Cash",966,393,"CREDIT","FAIL","Cash",1000075,"471-8712 Feugiat. Av.","Cayman Islands",1000049,"P.O. Box 953, 5384 A Avenue","Grenada","2017-02-07 21:56:52"),("A789","C20170419203049","ACC3",1000036,"Olympia","Cash",897,130,"CREDIT","FAIL","Cash",1000035,"Ap #979-2553 Nullam Rd.","Korea, North",1000086,"1478 Faucibus Ave","Sri Lanka","2017-10-16 15:49:33"),("A789","C20170419203049","ACC3",1000048,"Vanderhoof","Cash",172,232,"DEBIT","FAIL","Cash",1000019,"6431 Sociosqu Ave","Gibraltar",1000065,"P.O. Box 428, 4441 Curabitur Road","Turkmenistan","2017-05-23 16:58:18"),("A123","C20170419203049","ACC1",1000054,"Nocciano","Cash",432,469,"DEBIT","COM","Cash",1000083,"Ap #440-2453 Tincidunt Street","Iraq",1000006,"6199 Amet, St.","Saint Kitts and Nevis","2016-08-08 01:00:56");
+</t>
+  </si>
+  <si>
+    <t>transactions_data</t>
   </si>
 </sst>
 </file>
@@ -219,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -228,6 +330,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -513,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,9 +674,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -685,12 +796,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="Sheet2!B2" display="abc"/>
+    <hyperlink ref="B2" location="Schema!B2" display="cases_ddl"/>
     <hyperlink ref="B3" location="Schema!B3" display="alert_cases_ddl"/>
     <hyperlink ref="C2" location="Data!B2" display="cases_data"/>
     <hyperlink ref="C3" location="Data!B3" display="alert_cases_data"/>
     <hyperlink ref="C4" location="Data!B4" display="mon_alert_data"/>
     <hyperlink ref="B4" location="Schema!B4" display="mon_alert_ddl"/>
+    <hyperlink ref="C5" location="Data!B5" display="transactions_data"/>
+    <hyperlink ref="B5" location="Schema!B5" display="transactions_ddl"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -700,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B225"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,9 +855,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1633,9 +1750,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1671,9 +1788,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -2458,17 +2577,113 @@
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>